--- a/FrequencyTable.xlsx
+++ b/FrequencyTable.xlsx
@@ -7,35 +7,33 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="modified" sheetId="4" r:id="rId1"/>
-    <sheet name="original" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Propeller Pins" sheetId="3" r:id="rId1"/>
+    <sheet name="frequency table" sheetId="4" r:id="rId2"/>
+    <sheet name="LCDViews" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modified!$A$1:$F$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$F$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'frequency table'!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="176">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>c′′′′′ 5-line octave</t>
-  </si>
-  <si>
-    <t>C8 Eighth octave</t>
-  </si>
-  <si>
-    <t>b′′′′</t>
-  </si>
-  <si>
-    <t>B7</t>
+    <t>c′′′ 3-line octave</t>
+  </si>
+  <si>
+    <t>C6 Soprano C (High C)</t>
+  </si>
+  <si>
+    <t>b′′</t>
+  </si>
+  <si>
+    <t>B5</t>
   </si>
   <si>
     <r>
@@ -58,7 +56,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′/b</t>
+      <t>′′/b</t>
     </r>
     <r>
       <rPr>
@@ -77,7 +75,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′</t>
+      <t>′′</t>
     </r>
   </si>
   <si>
@@ -101,7 +99,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7/B</t>
+      <t>5/B</t>
     </r>
     <r>
       <rPr>
@@ -120,14 +118,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>a′′′′</t>
-  </si>
-  <si>
-    <t>A7</t>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>a′′</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
   <si>
     <r>
@@ -150,7 +148,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′/a</t>
+      <t>′′/a</t>
     </r>
     <r>
       <rPr>
@@ -169,7 +167,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′</t>
+      <t>′′</t>
     </r>
   </si>
   <si>
@@ -193,7 +191,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7/A</t>
+      <t>5/A</t>
     </r>
     <r>
       <rPr>
@@ -212,14 +210,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>g′′′′</t>
-  </si>
-  <si>
-    <t>G7</t>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>g′′</t>
+  </si>
+  <si>
+    <t>G5</t>
   </si>
   <si>
     <r>
@@ -242,7 +240,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′/g</t>
+      <t>′′/g</t>
     </r>
     <r>
       <rPr>
@@ -261,7 +259,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′</t>
+      <t>′′</t>
     </r>
   </si>
   <si>
@@ -285,7 +283,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7/G</t>
+      <t>5/G</t>
     </r>
     <r>
       <rPr>
@@ -304,20 +302,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>f′′′′</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>e′′′′</t>
-  </si>
-  <si>
-    <t>E7</t>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>f′′</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>e′′</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <r>
@@ -340,7 +341,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′/e</t>
+      <t>′′/e</t>
     </r>
     <r>
       <rPr>
@@ -359,7 +360,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′</t>
+      <t>′′</t>
     </r>
   </si>
   <si>
@@ -383,7 +384,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7/E</t>
+      <t>5/E</t>
     </r>
     <r>
       <rPr>
@@ -402,14 +403,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>d′′′′</t>
-  </si>
-  <si>
-    <t>D7</t>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>d′′</t>
+  </si>
+  <si>
+    <t>D5</t>
   </si>
   <si>
     <r>
@@ -432,7 +433,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′/d</t>
+      <t>′′/d</t>
     </r>
     <r>
       <rPr>
@@ -451,7 +452,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′′</t>
+      <t>′′</t>
     </r>
   </si>
   <si>
@@ -475,7 +476,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7/D</t>
+      <t>5/D</t>
     </r>
     <r>
       <rPr>
@@ -494,20 +495,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>c′′′′ 4-line octave</t>
-  </si>
-  <si>
-    <t>C7 Double high C</t>
-  </si>
-  <si>
-    <t>b′′′</t>
-  </si>
-  <si>
-    <t>B6</t>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>c′′ 2-line octave</t>
+  </si>
+  <si>
+    <t>C5 Tenor C</t>
+  </si>
+  <si>
+    <t>b′</t>
+  </si>
+  <si>
+    <t>B4</t>
   </si>
   <si>
     <r>
@@ -530,7 +531,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′/b</t>
+      <t>′/b</t>
     </r>
     <r>
       <rPr>
@@ -549,7 +550,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′</t>
+      <t>′</t>
     </r>
   </si>
   <si>
@@ -573,7 +574,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6/B</t>
+      <t>4/B</t>
     </r>
     <r>
       <rPr>
@@ -592,14 +593,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>a′′′</t>
-  </si>
-  <si>
-    <t>A6</t>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>a′</t>
+  </si>
+  <si>
+    <t>A4 A440</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <r>
@@ -622,7 +626,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′/a</t>
+      <t>′/a</t>
     </r>
     <r>
       <rPr>
@@ -641,7 +645,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′</t>
+      <t>′</t>
     </r>
   </si>
   <si>
@@ -665,7 +669,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6/A</t>
+      <t>4/A</t>
     </r>
     <r>
       <rPr>
@@ -684,14 +688,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>g′′′</t>
-  </si>
-  <si>
-    <t>G6</t>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>g′</t>
+  </si>
+  <si>
+    <t>G4</t>
   </si>
   <si>
     <r>
@@ -714,7 +718,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′/g</t>
+      <t>′/g</t>
     </r>
     <r>
       <rPr>
@@ -733,7 +737,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′</t>
+      <t>′</t>
     </r>
   </si>
   <si>
@@ -757,7 +761,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6/G</t>
+      <t>4/G</t>
     </r>
     <r>
       <rPr>
@@ -776,20 +780,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>f′′′</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>e′′′</t>
-  </si>
-  <si>
-    <t>E6</t>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>f′</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>e′</t>
+  </si>
+  <si>
+    <t>E4</t>
   </si>
   <si>
     <r>
@@ -812,7 +816,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′/e</t>
+      <t>′/e</t>
     </r>
     <r>
       <rPr>
@@ -831,7 +835,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′</t>
+      <t>′</t>
     </r>
   </si>
   <si>
@@ -855,7 +859,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6/E</t>
+      <t>4/E</t>
     </r>
     <r>
       <rPr>
@@ -874,14 +878,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>d′′′</t>
-  </si>
-  <si>
-    <t>D6</t>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>d′</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <r>
@@ -904,7 +911,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′/d</t>
+      <t>′/d</t>
     </r>
     <r>
       <rPr>
@@ -923,7 +930,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′′</t>
+      <t>′</t>
     </r>
   </si>
   <si>
@@ -947,7 +954,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6/D</t>
+      <t>4/D</t>
     </r>
     <r>
       <rPr>
@@ -966,20 +973,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>c′′′ 3-line octave</t>
-  </si>
-  <si>
-    <t>C6 Soprano C (High C)</t>
-  </si>
-  <si>
-    <t>b′′</t>
-  </si>
-  <si>
-    <t>B5</t>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>c′ 1-line octave</t>
+  </si>
+  <si>
+    <t>C4 Middle C</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <r>
@@ -1002,7 +1012,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′/b</t>
+      <t>/b</t>
     </r>
     <r>
       <rPr>
@@ -1013,16 +1023,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1045,7 +1045,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5/B</t>
+      <t>3/B</t>
     </r>
     <r>
       <rPr>
@@ -1064,14 +1064,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>a′′</t>
-  </si>
-  <si>
-    <t>A5</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
   <si>
     <r>
@@ -1094,7 +1094,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′/a</t>
+      <t>/a</t>
     </r>
     <r>
       <rPr>
@@ -1105,16 +1105,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1137,7 +1127,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5/A</t>
+      <t>3/A</t>
     </r>
     <r>
       <rPr>
@@ -1156,14 +1146,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>g′′</t>
-  </si>
-  <si>
-    <t>G5</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <r>
@@ -1186,7 +1179,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′/g</t>
+      <t>/g</t>
     </r>
     <r>
       <rPr>
@@ -1197,16 +1190,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1229,7 +1212,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5/G</t>
+      <t>3/G</t>
     </r>
     <r>
       <rPr>
@@ -1248,23 +1231,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>f′′</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>e′′</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>E3</t>
   </si>
   <si>
     <r>
@@ -1287,7 +1267,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′/e</t>
+      <t>/e</t>
     </r>
     <r>
       <rPr>
@@ -1298,16 +1278,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1330,7 +1300,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5/E</t>
+      <t>3/E</t>
     </r>
     <r>
       <rPr>
@@ -1349,14 +1319,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>d′′</t>
-  </si>
-  <si>
-    <t>D5</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
   <si>
     <r>
@@ -1379,7 +1349,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′′/d</t>
+      <t>/d</t>
     </r>
     <r>
       <rPr>
@@ -1390,16 +1360,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1422,7 +1382,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5/D</t>
+      <t>3/D</t>
     </r>
     <r>
       <rPr>
@@ -1441,24 +1401,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>c′′ 2-line octave</t>
-  </si>
-  <si>
-    <t>C5 Tenor C</t>
-  </si>
-  <si>
-    <t>b′</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>c small octave</t>
+  </si>
+  <si>
+    <t>C3 Low C</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
     </r>
     <r>
       <rPr>
@@ -1477,7 +1434,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′/b</t>
+      <t>/B</t>
     </r>
     <r>
       <rPr>
@@ -1488,16 +1445,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1520,7 +1467,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4/B</t>
+      <t>2/B</t>
     </r>
     <r>
       <rPr>
@@ -1539,21 +1486,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>a′</t>
-  </si>
-  <si>
-    <t>A4 A440</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
     </r>
     <r>
       <rPr>
@@ -1572,7 +1513,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′/a</t>
+      <t>/A</t>
     </r>
     <r>
       <rPr>
@@ -1583,16 +1524,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1615,7 +1546,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4/A</t>
+      <t>2/A</t>
     </r>
     <r>
       <rPr>
@@ -1634,18 +1565,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>g′</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
     </r>
     <r>
       <rPr>
@@ -1664,7 +1592,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′/g</t>
+      <t>/G</t>
     </r>
     <r>
       <rPr>
@@ -1675,16 +1603,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1707,7 +1625,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4/G</t>
+      <t>2/G</t>
     </r>
     <r>
       <rPr>
@@ -1726,24 +1644,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>f′</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>e′</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
     </r>
     <r>
       <rPr>
@@ -1762,7 +1677,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′/e</t>
+      <t>/E</t>
     </r>
     <r>
       <rPr>
@@ -1773,16 +1688,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1805,7 +1710,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4/E</t>
+      <t>2/E</t>
     </r>
     <r>
       <rPr>
@@ -1824,21 +1729,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>d′</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
     </r>
     <r>
       <rPr>
@@ -1857,7 +1756,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>′/d</t>
+      <t>/D</t>
     </r>
     <r>
       <rPr>
@@ -1868,16 +1767,6 @@
       </rPr>
       <t>♭</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>′</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1900,7 +1789,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4/D</t>
+      <t>2/D</t>
     </r>
     <r>
       <rPr>
@@ -1919,27 +1808,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>c′ 1-line octave</t>
-  </si>
-  <si>
-    <t>C4 Middle C</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>C great octave</t>
+  </si>
+  <si>
+    <t>C2 Deep C</t>
+  </si>
+  <si>
+    <t>B͵</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
     </r>
     <r>
       <rPr>
@@ -1958,7 +1844,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/b</t>
+      <t>͵/B</t>
     </r>
     <r>
       <rPr>
@@ -1969,6 +1855,16 @@
       </rPr>
       <t>♭</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>͵</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1991,7 +1887,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3/B</t>
+      <t>1/B</t>
     </r>
     <r>
       <rPr>
@@ -2010,18 +1906,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>A͵</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
     </r>
     <r>
       <rPr>
@@ -2040,7 +1936,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/a</t>
+      <t>͵/A</t>
     </r>
     <r>
       <rPr>
@@ -2051,6 +1947,16 @@
       </rPr>
       <t>♭</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>͵</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2073,7 +1979,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3/A</t>
+      <t>1/A</t>
     </r>
     <r>
       <rPr>
@@ -2092,21 +1998,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>G͵</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
     </r>
     <r>
       <rPr>
@@ -2125,7 +2028,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/g</t>
+      <t>͵/G</t>
     </r>
     <r>
       <rPr>
@@ -2136,6 +2039,16 @@
       </rPr>
       <t>♭</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>͵</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2158,7 +2071,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3/G</t>
+      <t>1/G</t>
     </r>
     <r>
       <rPr>
@@ -2177,24 +2090,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>F͵</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>E͵</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
     </r>
     <r>
       <rPr>
@@ -2213,7 +2126,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/e</t>
+      <t>͵/E</t>
     </r>
     <r>
       <rPr>
@@ -2224,6 +2137,16 @@
       </rPr>
       <t>♭</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>͵</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2246,7 +2169,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3/E</t>
+      <t>1/E</t>
     </r>
     <r>
       <rPr>
@@ -2265,18 +2188,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>D͵</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
     </r>
     <r>
       <rPr>
@@ -2295,7 +2218,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/d</t>
+      <t>͵/D</t>
     </r>
     <r>
       <rPr>
@@ -2306,6 +2229,16 @@
       </rPr>
       <t>♭</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>͵</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2328,7 +2261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3/D</t>
+      <t>1/D</t>
     </r>
     <r>
       <rPr>
@@ -2347,993 +2280,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>c small octave</t>
-  </si>
-  <si>
-    <t>C3 Low C</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2/B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2/A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2/G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2/E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2/D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>C great octave</t>
-  </si>
-  <si>
-    <t>C2 Deep C</t>
-  </si>
-  <si>
-    <t>B͵</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵/B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1</t>
     </r>
   </si>
   <si>
-    <t>A͵</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵/A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>G͵</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵/G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>F͵</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>E͵</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵/E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>D͵</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵/D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
     <t>C͵ contra-octave</t>
   </si>
   <si>
     <t>C1 Pedal C</t>
   </si>
   <si>
-    <t>B͵͵</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵͵/B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>͵͵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0/B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>♭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>A͵͵ sub-contra-octave</t>
-  </si>
-  <si>
-    <t>A0 Double Pedal A</t>
-  </si>
-  <si>
     <t>key number</t>
   </si>
   <si>
@@ -3365,13 +2321,139 @@
   </si>
   <si>
     <t>http://en.wikipedia.org/wiki/Piano_key_frequencies</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Internal Name</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3408,8 +2490,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3452,6 +2565,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3466,7 +2597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3501,6 +2632,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3803,9 +2945,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3821,37 +3159,37 @@
   <sheetData>
     <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3859,10 +3197,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2">
         <v>32.703200000000002</v>
@@ -3892,10 +3230,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2">
         <v>34.647799999999997</v>
@@ -3925,10 +3263,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2">
         <v>36.708100000000002</v>
@@ -3958,10 +3296,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2">
         <v>38.890900000000002</v>
@@ -3991,10 +3329,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2">
         <v>41.203400000000002</v>
@@ -4024,10 +3362,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2">
         <v>43.653500000000001</v>
@@ -4057,10 +3395,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2">
         <v>46.249299999999998</v>
@@ -4090,10 +3428,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2">
         <v>48.999400000000001</v>
@@ -4123,10 +3461,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2">
         <v>51.9131</v>
@@ -4156,10 +3494,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2">
         <v>55</v>
@@ -4189,10 +3527,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2">
         <v>58.270499999999998</v>
@@ -4222,10 +3560,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2">
         <v>61.735399999999998</v>
@@ -4255,10 +3593,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2">
         <v>65.406400000000005</v>
@@ -4270,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="H14" s="10">
         <v>13</v>
@@ -4291,10 +3629,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2">
         <v>69.295699999999997</v>
@@ -4324,10 +3662,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2">
         <v>73.416200000000003</v>
@@ -4357,10 +3695,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2">
         <v>77.781700000000001</v>
@@ -4390,10 +3728,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2">
         <v>82.406899999999993</v>
@@ -4423,10 +3761,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2">
         <v>87.307100000000005</v>
@@ -4456,10 +3794,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2">
         <v>92.498599999999996</v>
@@ -4489,10 +3827,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2">
         <v>97.998900000000006</v>
@@ -4522,10 +3860,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2">
         <v>103.82599999999999</v>
@@ -4555,10 +3893,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2">
         <v>110</v>
@@ -4588,10 +3926,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2">
         <v>116.541</v>
@@ -4621,10 +3959,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2">
         <v>123.471</v>
@@ -4655,10 +3993,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2">
         <v>130.81299999999999</v>
@@ -4691,10 +4029,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2">
         <v>138.59100000000001</v>
@@ -4727,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2">
         <v>146.83199999999999</v>
@@ -4763,10 +4101,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2">
         <v>155.56299999999999</v>
@@ -4799,10 +4137,10 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2">
         <v>164.81399999999999</v>
@@ -4835,10 +4173,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2">
         <v>174.614</v>
@@ -4871,10 +4209,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2">
         <v>184.99700000000001</v>
@@ -4907,10 +4245,10 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2">
         <v>195.99799999999999</v>
@@ -4943,10 +4281,10 @@
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="D34" s="2">
         <v>207.65199999999999</v>
@@ -4979,10 +4317,10 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D35" s="2">
         <v>220</v>
@@ -5015,10 +4353,10 @@
         <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2">
         <v>233.08199999999999</v>
@@ -5051,10 +4389,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2">
         <v>246.94200000000001</v>
@@ -5087,10 +4425,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="D38" s="6">
         <v>261.62599999999998</v>
@@ -5123,10 +4461,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D39" s="2">
         <v>277.18299999999999</v>
@@ -5156,10 +4494,10 @@
         <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2">
         <v>293.66500000000002</v>
@@ -5189,10 +4527,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2">
         <v>311.12700000000001</v>
@@ -5222,10 +4560,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2">
         <v>329.62799999999999</v>
@@ -5255,10 +4593,10 @@
         <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2">
         <v>349.22800000000001</v>
@@ -5288,10 +4626,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2">
         <v>369.99400000000003</v>
@@ -5321,10 +4659,10 @@
         <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2">
         <v>391.995</v>
@@ -5354,10 +4692,10 @@
         <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2">
         <v>415.30500000000001</v>
@@ -5387,10 +4725,10 @@
         <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D47" s="5">
         <v>440</v>
@@ -5420,10 +4758,10 @@
         <v>50</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>466.16399999999999</v>
@@ -5453,10 +4791,10 @@
         <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>493.88299999999998</v>
@@ -5486,10 +4824,10 @@
         <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>523.25099999999998</v>
@@ -5504,7 +4842,7 @@
         <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -5522,10 +4860,10 @@
         <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2">
         <v>554.36500000000001</v>
@@ -5555,10 +4893,10 @@
         <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2">
         <v>587.33000000000004</v>
@@ -5588,10 +4926,10 @@
         <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2">
         <v>622.25400000000002</v>
@@ -5621,10 +4959,10 @@
         <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2">
         <v>659.255</v>
@@ -5654,10 +4992,10 @@
         <v>57</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2">
         <v>698.45600000000002</v>
@@ -5687,10 +5025,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2">
         <v>739.98900000000003</v>
@@ -5720,10 +5058,10 @@
         <v>59</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2">
         <v>783.99099999999999</v>
@@ -5753,10 +5091,10 @@
         <v>60</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
         <v>830.60900000000004</v>
@@ -5786,10 +5124,10 @@
         <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2">
         <v>880</v>
@@ -5819,10 +5157,10 @@
         <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D60" s="2">
         <v>932.32799999999997</v>
@@ -5852,10 +5190,10 @@
         <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2">
         <v>987.76700000000005</v>
@@ -5885,10 +5223,10 @@
         <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D62" s="2">
         <v>1046.5</v>
@@ -5928,1837 +5266,165 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="2" max="17" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="E2" s="9">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="C1" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2">
-        <v>29.135200000000001</v>
-      </c>
-      <c r="E3" s="9">
-        <v>29.135200000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D1" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30.867699999999999</v>
-      </c>
-      <c r="E4" s="9">
-        <v>30.867699999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E1" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="2">
-        <v>32.703200000000002</v>
-      </c>
-      <c r="E5" s="9">
-        <v>32.703200000000002</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="F1" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="2">
-        <v>34.647799999999997</v>
-      </c>
-      <c r="E6" s="9">
-        <v>34.647799999999997</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="G1" s="14">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36.708100000000002</v>
-      </c>
-      <c r="E7" s="9">
-        <v>36.708100000000002</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="15">
+        <v>9</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="2">
-        <v>38.890900000000002</v>
-      </c>
-      <c r="E8" s="9">
-        <v>38.890900000000002</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="I2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="15">
+        <v>9</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="15">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="2">
-        <v>41.203400000000002</v>
-      </c>
-      <c r="E9" s="9">
-        <v>41.203400000000002</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="I3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43.653500000000001</v>
-      </c>
-      <c r="E10" s="9">
-        <v>43.653500000000001</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="2">
-        <v>46.249299999999998</v>
-      </c>
-      <c r="E11" s="9">
-        <v>46.249299999999998</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="2">
-        <v>48.999400000000001</v>
-      </c>
-      <c r="E12" s="9">
-        <v>48.999400000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="2">
-        <v>51.9131</v>
-      </c>
-      <c r="E13" s="9">
-        <v>51.9131</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="2">
-        <v>55</v>
-      </c>
-      <c r="E14" s="9">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="2">
-        <v>58.270499999999998</v>
-      </c>
-      <c r="E15" s="9">
-        <v>58.270499999999998</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="2">
-        <v>61.735399999999998</v>
-      </c>
-      <c r="E16" s="9">
-        <v>61.735399999999998</v>
-      </c>
-      <c r="F16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="2">
-        <v>65.406400000000005</v>
-      </c>
-      <c r="E17" s="9">
-        <v>65.406400000000005</v>
-      </c>
-      <c r="F17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="2">
-        <v>69.295699999999997</v>
-      </c>
-      <c r="E18" s="9">
-        <v>69.295699999999997</v>
-      </c>
-      <c r="F18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="2">
-        <v>73.416200000000003</v>
-      </c>
-      <c r="E19" s="9">
-        <v>73.416200000000003</v>
-      </c>
-      <c r="F19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="2">
-        <v>77.781700000000001</v>
-      </c>
-      <c r="E20" s="9">
-        <v>77.781700000000001</v>
-      </c>
-      <c r="F20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="K3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="2">
-        <v>82.406899999999993</v>
-      </c>
-      <c r="E21" s="9">
-        <v>82.406899999999993</v>
-      </c>
-      <c r="F21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="2">
-        <v>87.307100000000005</v>
-      </c>
-      <c r="E22" s="9">
-        <v>87.307100000000005</v>
-      </c>
-      <c r="F22" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="M3" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="2">
-        <v>92.498599999999996</v>
-      </c>
-      <c r="E23" s="9">
-        <v>92.498599999999996</v>
-      </c>
-      <c r="F23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="2">
-        <v>97.998900000000006</v>
-      </c>
-      <c r="E24" s="9">
-        <v>97.998900000000006</v>
-      </c>
-      <c r="F24" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="2">
-        <v>103.82599999999999</v>
-      </c>
-      <c r="E25" s="9">
-        <v>103.82599999999999</v>
-      </c>
-      <c r="F25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="2">
-        <v>110</v>
-      </c>
-      <c r="E26" s="9">
-        <v>110</v>
-      </c>
-      <c r="F26" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="2">
-        <v>116.541</v>
-      </c>
-      <c r="E27" s="9">
-        <v>116.541</v>
-      </c>
-      <c r="F27" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="2">
-        <v>123.471</v>
-      </c>
-      <c r="E28" s="9">
-        <v>123.471</v>
-      </c>
-      <c r="F28" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="2">
-        <v>130.81299999999999</v>
-      </c>
-      <c r="E29" s="9">
-        <v>130.81299999999999</v>
-      </c>
-      <c r="F29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="2">
-        <v>138.59100000000001</v>
-      </c>
-      <c r="E30" s="9">
-        <v>138.59100000000001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="2">
-        <v>146.83199999999999</v>
-      </c>
-      <c r="E31" s="9">
-        <v>146.83199999999999</v>
-      </c>
-      <c r="F31" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="2">
-        <v>155.56299999999999</v>
-      </c>
-      <c r="E32" s="9">
-        <v>155.56299999999999</v>
-      </c>
-      <c r="F32" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="2">
-        <v>164.81399999999999</v>
-      </c>
-      <c r="E33" s="9">
-        <v>164.81399999999999</v>
-      </c>
-      <c r="F33">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="2">
-        <v>174.614</v>
-      </c>
-      <c r="E34" s="9">
-        <v>174.614</v>
-      </c>
-      <c r="F34" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="2">
-        <v>184.99700000000001</v>
-      </c>
-      <c r="E35" s="9">
-        <v>184.99700000000001</v>
-      </c>
-      <c r="F35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="2">
-        <v>195.99799999999999</v>
-      </c>
-      <c r="E36" s="9">
-        <v>195.99799999999999</v>
-      </c>
-      <c r="F36" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="2">
-        <v>207.65199999999999</v>
-      </c>
-      <c r="E37" s="9">
-        <v>207.65199999999999</v>
-      </c>
-      <c r="F37" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="2">
-        <v>220</v>
-      </c>
-      <c r="E38" s="9">
-        <v>220</v>
-      </c>
-      <c r="F38" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="2">
-        <v>233.08199999999999</v>
-      </c>
-      <c r="E39" s="9">
-        <v>233.08199999999999</v>
-      </c>
-      <c r="F39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="2">
-        <v>246.94200000000001</v>
-      </c>
-      <c r="E40" s="9">
-        <v>246.94200000000001</v>
-      </c>
-      <c r="F40" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="6">
-        <v>261.62599999999998</v>
-      </c>
-      <c r="E41" s="9">
-        <v>261.62599999999998</v>
-      </c>
-      <c r="F41" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="2">
-        <v>277.18299999999999</v>
-      </c>
-      <c r="E42" s="9">
-        <v>277.18299999999999</v>
-      </c>
-      <c r="F42" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="2">
-        <v>293.66500000000002</v>
-      </c>
-      <c r="E43" s="9">
-        <v>293.66500000000002</v>
-      </c>
-      <c r="F43">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="2">
-        <v>311.12700000000001</v>
-      </c>
-      <c r="E44" s="9">
-        <v>311.12700000000001</v>
-      </c>
-      <c r="F44" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="2">
-        <v>329.62799999999999</v>
-      </c>
-      <c r="E45" s="9">
-        <v>329.62799999999999</v>
-      </c>
-      <c r="F45">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="2">
-        <v>349.22800000000001</v>
-      </c>
-      <c r="E46" s="9">
-        <v>349.22800000000001</v>
-      </c>
-      <c r="F46" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="2">
-        <v>369.99400000000003</v>
-      </c>
-      <c r="E47" s="9">
-        <v>369.99400000000003</v>
-      </c>
-      <c r="F47" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="2">
-        <v>391.995</v>
-      </c>
-      <c r="E48" s="9">
-        <v>391.995</v>
-      </c>
-      <c r="F48" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="2">
-        <v>415.30500000000001</v>
-      </c>
-      <c r="E49" s="9">
-        <v>415.30500000000001</v>
-      </c>
-      <c r="F49">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="5">
-        <v>440</v>
-      </c>
-      <c r="E50" s="9">
-        <v>440</v>
-      </c>
-      <c r="F50" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="2">
-        <v>466.16399999999999</v>
-      </c>
-      <c r="E51" s="9">
-        <v>466.16399999999999</v>
-      </c>
-      <c r="F51" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="2">
-        <v>493.88299999999998</v>
-      </c>
-      <c r="E52" s="9">
-        <v>493.88299999999998</v>
-      </c>
-      <c r="F52" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="2">
-        <v>523.25099999999998</v>
-      </c>
-      <c r="E53" s="9">
-        <v>523.25099999999998</v>
-      </c>
-      <c r="F53">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="2">
-        <v>554.36500000000001</v>
-      </c>
-      <c r="E54" s="9">
-        <v>554.36500000000001</v>
-      </c>
-      <c r="F54" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="2">
-        <v>587.33000000000004</v>
-      </c>
-      <c r="E55" s="9">
-        <v>587.33000000000004</v>
-      </c>
-      <c r="F55">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="2">
-        <v>622.25400000000002</v>
-      </c>
-      <c r="E56" s="9">
-        <v>622.25400000000002</v>
-      </c>
-      <c r="F56" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="2">
-        <v>659.255</v>
-      </c>
-      <c r="E57" s="9">
-        <v>659.255</v>
-      </c>
-      <c r="F57" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="2">
-        <v>698.45600000000002</v>
-      </c>
-      <c r="E58" s="9">
-        <v>698.45600000000002</v>
-      </c>
-      <c r="F58" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="2">
-        <v>739.98900000000003</v>
-      </c>
-      <c r="E59" s="9">
-        <v>739.98900000000003</v>
-      </c>
-      <c r="F59">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="2">
-        <v>783.99099999999999</v>
-      </c>
-      <c r="E60" s="9">
-        <v>783.99099999999999</v>
-      </c>
-      <c r="F60" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="2">
-        <v>830.60900000000004</v>
-      </c>
-      <c r="E61" s="9">
-        <v>830.60900000000004</v>
-      </c>
-      <c r="F61" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="2">
-        <v>880</v>
-      </c>
-      <c r="E62" s="9">
-        <v>880</v>
-      </c>
-      <c r="F62" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="2">
-        <v>932.32799999999997</v>
-      </c>
-      <c r="E63" s="9">
-        <v>932.32799999999997</v>
-      </c>
-      <c r="F63">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="2">
-        <v>987.76700000000005</v>
-      </c>
-      <c r="E64" s="9">
-        <v>987.76700000000005</v>
-      </c>
-      <c r="F64" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1046.5</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1046.5</v>
-      </c>
-      <c r="F65">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1108.73</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1108.73</v>
-      </c>
-      <c r="F66" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1174.6600000000001</v>
-      </c>
-      <c r="E67" s="9">
-        <v>1174.6600000000001</v>
-      </c>
-      <c r="F67" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1244.51</v>
-      </c>
-      <c r="E68" s="9">
-        <v>1244.51</v>
-      </c>
-      <c r="F68" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1318.51</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1318.51</v>
-      </c>
-      <c r="F69">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1396.91</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1396.91</v>
-      </c>
-      <c r="F70" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1479.98</v>
-      </c>
-      <c r="E71" s="9">
-        <v>1479.98</v>
-      </c>
-      <c r="F71" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1567.98</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1567.98</v>
-      </c>
-      <c r="F72" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1661.22</v>
-      </c>
-      <c r="E73" s="9">
-        <v>1661.22</v>
-      </c>
-      <c r="F73">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1760</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1760</v>
-      </c>
-      <c r="F74" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1864.66</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1864.66</v>
-      </c>
-      <c r="F75">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1975.53</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1975.53</v>
-      </c>
-      <c r="F76" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="2">
-        <v>2093</v>
-      </c>
-      <c r="E77" s="9">
-        <v>2093</v>
-      </c>
-      <c r="F77" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="2">
-        <v>2217.46</v>
-      </c>
-      <c r="E78" s="9">
-        <v>2217.46</v>
-      </c>
-      <c r="F78" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="2">
-        <v>2349.3200000000002</v>
-      </c>
-      <c r="E79" s="9">
-        <v>2349.3200000000002</v>
-      </c>
-      <c r="F79">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="2">
-        <v>2489.02</v>
-      </c>
-      <c r="E80" s="9">
-        <v>2489.02</v>
-      </c>
-      <c r="F80" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="2">
-        <v>2637.02</v>
-      </c>
-      <c r="E81" s="9">
-        <v>2637.02</v>
-      </c>
-      <c r="F81" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2793.83</v>
-      </c>
-      <c r="E82" s="9">
-        <v>2793.83</v>
-      </c>
-      <c r="F82" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2959.96</v>
-      </c>
-      <c r="E83" s="9">
-        <v>2959.96</v>
-      </c>
-      <c r="F83">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2">
-        <v>3135.96</v>
-      </c>
-      <c r="E84" s="9">
-        <v>3135.96</v>
-      </c>
-      <c r="F84" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="2">
-        <v>3322.44</v>
-      </c>
-      <c r="E85" s="9">
-        <v>3322.44</v>
-      </c>
-      <c r="F85">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2">
-        <v>3520</v>
-      </c>
-      <c r="E86" s="9">
-        <v>3520</v>
-      </c>
-      <c r="F86" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="2">
-        <v>3729.31</v>
-      </c>
-      <c r="E87" s="9">
-        <v>3729.31</v>
-      </c>
-      <c r="F87" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="N3" s="15">
         <v>3</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="2">
-        <v>3951.07</v>
-      </c>
-      <c r="E88" s="9">
-        <v>3951.07</v>
-      </c>
-      <c r="F88" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="2">
-        <v>4186.01</v>
-      </c>
-      <c r="E89" s="9">
-        <v>4186.01</v>
-      </c>
-      <c r="F89">
-        <v>84</v>
-      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F89"/>
-  <hyperlinks>
-    <hyperlink ref="B89" r:id="rId1" tooltip="Octave" display="http://en.wikipedia.org/wiki/Octave"/>
-    <hyperlink ref="C89" r:id="rId2" tooltip="Eighth octave C" display="http://en.wikipedia.org/wiki/Eighth_octave_C"/>
-    <hyperlink ref="C77" r:id="rId3" tooltip="Double high C" display="http://en.wikipedia.org/wiki/Double_high_C"/>
-    <hyperlink ref="C65" r:id="rId4" tooltip="Soprano C" display="http://en.wikipedia.org/wiki/Soprano_C"/>
-    <hyperlink ref="C53" r:id="rId5" tooltip="Tenor C" display="http://en.wikipedia.org/wiki/Tenor_C"/>
-    <hyperlink ref="C50" r:id="rId6" tooltip="A440 (pitch standard)" display="http://en.wikipedia.org/wiki/A440_(pitch_standard)"/>
-    <hyperlink ref="C41" r:id="rId7" tooltip="Middle C" display="http://en.wikipedia.org/wiki/Middle_C"/>
-    <hyperlink ref="C29" r:id="rId8" tooltip="Low C" display="http://en.wikipedia.org/wiki/Low_C"/>
-    <hyperlink ref="C17" r:id="rId9" tooltip="Deep C" display="http://en.wikipedia.org/wiki/Deep_C"/>
-    <hyperlink ref="G1" r:id="rId10"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>